--- a/NMME_data_list_new.xlsx
+++ b/NMME_data_list_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/listentorain/Library/Caches/com.binarynights.ForkLift-3/0AC7B39E-AA09-4403-8314-D520EE578296/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B1979D-4CB8-F84A-BAA0-2E5FADF0C7C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7C6B64-88BA-574C-A3AA-D60090255B0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{D5014E08-0A0A-044A-8C05-593A71D3A62D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="61">
   <si>
     <t>NAME</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -158,28 +158,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>NASA-GMAO-062012</t>
-  </si>
-  <si>
     <t>1981-01</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2018-01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.99999987E14</t>
-  </si>
-  <si>
-    <t>NaN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://iridl.ldeo.columbia.edu/SOURCES/.Models/.NMME/.NASA-GMAO-062012/.MONTHLY/.sst/M/(1.0)/(1.0)/RANGEEDGES/data.nc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>COLA-RSMAS-CCSM3</t>
   </si>
   <si>
@@ -194,9 +176,6 @@
     <t>CMC1-CanCM3</t>
   </si>
   <si>
-    <t>CMC1-CanCM4</t>
-  </si>
-  <si>
     <t>9.99900026E20</t>
   </si>
   <si>
@@ -257,6 +236,32 @@
   </si>
   <si>
     <t>http://iridl.ldeo.columbia.edu/SOURCES/.Models/.NMME/.GFDL-CM2p1-aer04/.MONTHLY/.sst/M/(1.0)/(1.0)/RANGEEDGES/data.nc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t>CanCM4i</t>
+  </si>
+  <si>
+    <t>1981-01</t>
+  </si>
+  <si>
+    <t>2018-12</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>HINDCAST_monthly</t>
+  </si>
+  <si>
+    <t>http://iridl.ldeo.columbia.edu/SOURCES/.Models/.NMME/.CanCM4i/.HINDCAST/.MONTHLY/.sst/M/(1.0)/(1.0)/RANGEEDGES/data.nc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMC2-CanCM4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -736,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9FF99A-C6E3-1242-96EA-4B7709753EB6}">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="148" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -821,10 +826,10 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="10" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B2" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C2" s="10">
         <v>0.5</v>
@@ -833,16 +838,16 @@
         <v>11.5</v>
       </c>
       <c r="E2" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H2" s="12">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="I2" s="10">
         <v>-90</v>
@@ -859,9 +864,6 @@
       <c r="M2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="13">
-        <v>732</v>
-      </c>
       <c r="O2" s="10" t="s">
         <v>24</v>
       </c>
@@ -871,13 +873,13 @@
       <c r="Q2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="14" t="s">
-        <v>25</v>
+      <c r="R2" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="10" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B3" s="10">
         <v>10</v>
@@ -892,13 +894,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="H3" s="12">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="I3" s="10">
         <v>-90</v>
@@ -913,24 +915,27 @@
         <v>359</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>52</v>
+        <v>23</v>
+      </c>
+      <c r="N3" s="13">
+        <v>732</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="Q3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>53</v>
+      <c r="R3" s="14" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B4" s="10">
         <v>10</v>
@@ -972,7 +977,7 @@
         <v>732</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="P4" s="10" t="s">
         <v>20</v>
@@ -981,7 +986,7 @@
         <v>16</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1037,7 +1042,7 @@
         <v>16</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1096,14 +1101,116 @@
         <v>31</v>
       </c>
     </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="10">
+        <v>10</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="10">
+        <v>11.5</v>
+      </c>
+      <c r="E7" s="10">
+        <v>10</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="12">
+        <v>463</v>
+      </c>
+      <c r="I7" s="10">
+        <v>-90</v>
+      </c>
+      <c r="J7" s="10">
+        <v>90</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0</v>
+      </c>
+      <c r="L7" s="10">
+        <v>359</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="10">
+        <v>10</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="10">
+        <v>11.5</v>
+      </c>
+      <c r="E8" s="10">
+        <v>10</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="12">
+        <v>463</v>
+      </c>
+      <c r="I8" s="10">
+        <v>-90</v>
+      </c>
+      <c r="J8" s="10">
+        <v>90</v>
+      </c>
+      <c r="K8" s="10">
+        <v>0</v>
+      </c>
+      <c r="L8" s="10">
+        <v>359</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="R2" r:id="rId1" xr:uid="{197A93EA-0205-5F45-AD39-8DA8ECB9614B}"/>
+    <hyperlink ref="R3" r:id="rId1" xr:uid="{197A93EA-0205-5F45-AD39-8DA8ECB9614B}"/>
     <hyperlink ref="R6" r:id="rId2" xr:uid="{616F2190-DA3C-574C-92A5-89B3C476655D}"/>
-    <hyperlink ref="R3" r:id="rId3" xr:uid="{66A7C5FB-113E-3445-9F57-DCB75DC4A808}"/>
-    <hyperlink ref="R5" r:id="rId4" xr:uid="{856D4885-C448-7749-B74C-55872090CC79}"/>
-    <hyperlink ref="R4" r:id="rId5" xr:uid="{6F455CDA-580D-0349-9A8E-BB6976544E86}"/>
+    <hyperlink ref="R5" r:id="rId3" xr:uid="{856D4885-C448-7749-B74C-55872090CC79}"/>
+    <hyperlink ref="R4" r:id="rId4" xr:uid="{6F455CDA-580D-0349-9A8E-BB6976544E86}"/>
+    <hyperlink ref="R2" r:id="rId5" xr:uid="{8EA69164-C7AD-354E-8AD2-45FB45E80BE2}"/>
+    <hyperlink ref="R7" r:id="rId6" xr:uid="{04E63A85-0596-944D-B2B8-6BB9E03BF1D1}"/>
+    <hyperlink ref="R8" r:id="rId7" xr:uid="{C3371E96-474F-0E4A-BF7C-901C2866DBD9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1115,7 +1222,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView zoomScale="137" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1183,63 +1290,62 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="10" customFormat="1">
-      <c r="A2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="10">
-        <v>6</v>
-      </c>
-      <c r="C2" s="10">
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
         <v>0.5</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2">
         <v>11.5</v>
       </c>
-      <c r="E2" s="10">
-        <v>6</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="12">
-        <v>444</v>
-      </c>
-      <c r="I2" s="10">
-        <v>-90</v>
-      </c>
-      <c r="J2" s="10">
-        <v>90</v>
-      </c>
-      <c r="K2" s="10">
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2">
+        <v>-50</v>
+      </c>
+      <c r="J2">
+        <v>50</v>
+      </c>
+      <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2">
         <v>359</v>
       </c>
-      <c r="M2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="10" t="s">
+      <c r="M2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" t="s">
         <v>16</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="10" customFormat="1">
       <c r="A3" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B3" s="10">
         <v>10</v>
@@ -1254,10 +1360,10 @@
         <v>10</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H3" s="12">
         <v>360</v>
@@ -1275,25 +1381,25 @@
         <v>359</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="N3" s="13"/>
       <c r="O3" s="10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="10" t="s">
         <v>16</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="10" customFormat="1">
       <c r="A4" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B4" s="10">
         <v>10</v>
@@ -1308,10 +1414,10 @@
         <v>10</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H4" s="12">
         <v>103</v>
@@ -1329,25 +1435,25 @@
         <v>359</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="N4" s="13"/>
       <c r="O4" s="10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="10" t="s">
         <v>16</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="10" customFormat="1">
       <c r="A5" s="10" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B5" s="10">
         <v>10</v>
@@ -1362,10 +1468,10 @@
         <v>10</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H5" s="12">
         <v>360</v>
@@ -1383,25 +1489,25 @@
         <v>359</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="N5" s="13"/>
       <c r="O5" s="10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:18" s="10" customFormat="1">
       <c r="A6" s="10" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B6" s="10">
         <v>10</v>
@@ -1416,10 +1522,10 @@
         <v>10</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H6" s="12">
         <v>103</v>
@@ -1437,46 +1543,46 @@
         <v>359</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="N6" s="13"/>
       <c r="O6" s="10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q6" s="10" t="s">
         <v>16</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="10" customFormat="1">
       <c r="A7" s="10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B7" s="10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="10">
         <v>0.5</v>
       </c>
       <c r="D7" s="10">
-        <v>8.5</v>
+        <v>11.5</v>
       </c>
       <c r="E7" s="10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H7" s="12">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="I7" s="10">
         <v>-90</v>
@@ -1491,34 +1597,33 @@
         <v>359</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>36</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="N7" s="13"/>
       <c r="O7" s="10" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R7" s="14" t="s">
-        <v>37</v>
+      <c r="R7" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="R2" r:id="rId1" xr:uid="{8EA69164-C7AD-354E-8AD2-45FB45E80BE2}"/>
-    <hyperlink ref="R3" r:id="rId2" xr:uid="{1FDF3F9E-6C08-294C-AC7C-01DF54EA1B64}"/>
-    <hyperlink ref="R4" r:id="rId3" xr:uid="{5AD70F2F-F8C5-1449-A64E-0D5F97E956C7}"/>
-    <hyperlink ref="R5" r:id="rId4" xr:uid="{E9A9C9FD-0B5D-B14F-810A-38F9D00551BF}"/>
-    <hyperlink ref="R6" r:id="rId5" xr:uid="{AA12DF70-B91C-1D46-9E7E-C6C37C8DE730}"/>
-    <hyperlink ref="R7" r:id="rId6" xr:uid="{3A31DC0E-3305-EA42-A169-FDC3DCA0FA51}"/>
+    <hyperlink ref="R3" r:id="rId1" xr:uid="{1FDF3F9E-6C08-294C-AC7C-01DF54EA1B64}"/>
+    <hyperlink ref="R4" r:id="rId2" xr:uid="{5AD70F2F-F8C5-1449-A64E-0D5F97E956C7}"/>
+    <hyperlink ref="R5" r:id="rId3" xr:uid="{E9A9C9FD-0B5D-B14F-810A-38F9D00551BF}"/>
+    <hyperlink ref="R6" r:id="rId4" xr:uid="{AA12DF70-B91C-1D46-9E7E-C6C37C8DE730}"/>
+    <hyperlink ref="R2" r:id="rId5" xr:uid="{70B7901D-EA4D-A849-9A1C-9BA1F796F75C}"/>
+    <hyperlink ref="R7" r:id="rId6" xr:uid="{66A7C5FB-113E-3445-9F57-DCB75DC4A808}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>